--- a/data/Contreras_2016_2.xlsx
+++ b/data/Contreras_2016_2.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/migueltenorio/Documents/GitHub/CIT-SimBiology-Toolbox/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A782788C-D18E-F745-A166-04BF3E853BA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AE7F11-ACE2-0A49-86B2-E53DADEAB10B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{B5BC270A-1E9F-5746-829E-1FB2B0EBE80E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{B5BC270A-1E9F-5746-829E-1FB2B0EBE80E}"/>
   </bookViews>
   <sheets>
     <sheet name="B16F10" sheetId="1" r:id="rId1"/>
+    <sheet name="Original" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
   <si>
     <t>Time[hour(s)]</t>
   </si>
@@ -72,6 +73,21 @@
   </si>
   <si>
     <t>Blood.antiPDL1_free[mg/l]</t>
+  </si>
+  <si>
+    <t>Time [h]</t>
+  </si>
+  <si>
+    <t>SD [ng/mL]</t>
+  </si>
+  <si>
+    <t>SD [µg/mL]</t>
+  </si>
+  <si>
+    <t>Tumor.Concentration [ng/mL]</t>
+  </si>
+  <si>
+    <t>Serum.Concentration [µg/mL]</t>
   </si>
 </sst>
 </file>
@@ -427,14 +443,14 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H3" sqref="H3:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.1640625" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
     <col min="6" max="6" width="22.5" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" customWidth="1"/>
@@ -488,7 +504,7 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" s="1">
@@ -501,10 +517,11 @@
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <f>B2/(4.5*0.022)</f>
+        <f>B2/0.1/1000*100</f>
         <v>0</v>
       </c>
       <c r="G2" s="1">
+        <f>C2/0.1/1000*100</f>
         <v>0</v>
       </c>
       <c r="H2" s="1">
@@ -531,10 +548,12 @@
         <v>0.17000000178813934</v>
       </c>
       <c r="B3" s="1">
-        <v>0.90361446142196655</v>
+        <f>Original!B2/1000</f>
+        <v>9.0361445783132696E-2</v>
       </c>
       <c r="C3" s="1">
-        <v>9.0361442565917965E-2</v>
+        <f>Original!C2/1000</f>
+        <v>9.0361445783132696E-2</v>
       </c>
       <c r="D3" s="1">
         <v>39.4074096679687</v>
@@ -543,20 +562,20 @@
         <v>5.3003091812133789</v>
       </c>
       <c r="F3" s="1">
-        <f>B3/(4.5*0.022)/1000*100</f>
-        <v>0.91274188022420866</v>
+        <f t="shared" ref="F3:G9" si="0">B3/0.1/1000*100</f>
+        <v>9.0361445783132682E-2</v>
       </c>
       <c r="G3" s="1">
-        <f>C3*1/(4.5*0.022)/1000*100</f>
-        <v>9.1274184410018153E-2</v>
+        <f t="shared" si="0"/>
+        <v>9.0361445783132682E-2</v>
       </c>
       <c r="H3" s="1">
-        <f>D3/0.1/1000*100</f>
+        <f>D3/(0.1)/1000*100</f>
         <v>39.4074096679687</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3" si="0">E3*1/(4.5*0.022)/1000*100</f>
-        <v>5.3538476577912926</v>
+        <f>E3/(0.1)/1000*100</f>
+        <v>5.3003091812133789</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -576,10 +595,12 @@
         <v>0.5</v>
       </c>
       <c r="B4" s="1">
-        <v>3.132530152797699</v>
+        <f>Original!B3/1000</f>
+        <v>0.313253012048192</v>
       </c>
       <c r="C4" s="1">
-        <v>0.31325302124023435</v>
+        <f>Original!C3/1000</f>
+        <v>0.313253012048192</v>
       </c>
       <c r="D4" s="1">
         <v>40.138889312744141</v>
@@ -588,20 +609,20 @@
         <v>3.6111111640930176</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:F9" si="1">B4/(4.5*0.022)/1000*100</f>
-        <v>3.1641718715128277</v>
+        <f t="shared" si="0"/>
+        <v>0.313253012048192</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" ref="G4:G9" si="2">C4*1/(4.5*0.022)/1000*100</f>
-        <v>0.31641719317195394</v>
+        <f t="shared" si="0"/>
+        <v>0.313253012048192</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H9" si="3">D4/0.1/1000*100</f>
+        <f t="shared" ref="H4:H9" si="1">D4/(0.1)/1000*100</f>
         <v>40.138889312744141</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" ref="I4:I9" si="4">E4*1/(4.5*0.022)/1000*100</f>
-        <v>3.6475870344373917</v>
+        <f t="shared" ref="I4:I9" si="2">E4/(0.1)/1000*100</f>
+        <v>3.611111164093018</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -621,10 +642,12 @@
         <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>4.0361446142196655</v>
+        <f>Original!B4/1000</f>
+        <v>0.40361445783132466</v>
       </c>
       <c r="C5" s="1">
-        <v>0.20980813598632814</v>
+        <f>Original!C4/1000</f>
+        <v>0.2098081297261202</v>
       </c>
       <c r="D5" s="1">
         <v>38.240741729736328</v>
@@ -633,20 +656,20 @@
         <v>3.0259509086608887</v>
       </c>
       <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.40361445783132466</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.2098081297261202</v>
+      </c>
+      <c r="H5" s="1">
         <f t="shared" si="1"/>
-        <v>4.0769137517370355</v>
-      </c>
-      <c r="G5" s="1">
+        <v>38.240741729736328</v>
+      </c>
+      <c r="I5" s="1">
         <f t="shared" si="2"/>
-        <v>0.21192741008720017</v>
-      </c>
-      <c r="H5" s="1">
-        <f t="shared" si="3"/>
-        <v>38.240741729736328</v>
-      </c>
-      <c r="I5" s="1">
-        <f t="shared" si="4"/>
-        <v>3.0565160693544331</v>
+        <v>3.0259509086608887</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -666,10 +689,12 @@
         <v>3</v>
       </c>
       <c r="B6" s="1">
-        <v>6.0240960121154785</v>
+        <f>Original!B5/1000</f>
+        <v>0.60240963855421603</v>
       </c>
       <c r="C6" s="1">
-        <v>0.6024096069335938</v>
+        <f>Original!C5/1000</f>
+        <v>0.60240963855421603</v>
       </c>
       <c r="D6" s="1">
         <v>35.879627227783203</v>
@@ -678,20 +703,20 @@
         <v>5.1439609527587891</v>
       </c>
       <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.60240963855421603</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.60240963855421603</v>
+      </c>
+      <c r="H6" s="1">
         <f t="shared" si="1"/>
-        <v>6.0849454667833118</v>
-      </c>
-      <c r="G6" s="1">
+        <v>35.879627227783203</v>
+      </c>
+      <c r="I6" s="1">
         <f t="shared" si="2"/>
-        <v>0.60849455245817563</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" si="3"/>
-        <v>35.879627227783203</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" si="4"/>
-        <v>5.1959201543018079</v>
+        <v>5.1439609527587891</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -711,10 +736,12 @@
         <v>8</v>
       </c>
       <c r="B7" s="1">
-        <v>7.1807229518890381</v>
+        <f>Original!B6/1000</f>
+        <v>0.71807228915662558</v>
       </c>
       <c r="C7" s="1">
-        <v>0.18970643615722657</v>
+        <f>Original!C6/1000</f>
+        <v>0.18970643753711922</v>
       </c>
       <c r="D7" s="1">
         <v>24.656084060668945</v>
@@ -723,20 +750,20 @@
         <v>6.7750954627990723</v>
       </c>
       <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.71807228915662558</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.18970643753711919</v>
+      </c>
+      <c r="H7" s="1">
         <f t="shared" si="1"/>
-        <v>7.2532555069586255</v>
-      </c>
-      <c r="G7" s="1">
+        <v>24.656084060668945</v>
+      </c>
+      <c r="I7" s="1">
         <f t="shared" si="2"/>
-        <v>0.19162266278507736</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" si="3"/>
-        <v>24.656084060668945</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="4"/>
-        <v>6.8435307705041133</v>
+        <v>6.7750954627990714</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -756,10 +783,12 @@
         <v>24</v>
       </c>
       <c r="B8" s="1">
-        <v>4.4277110695838928</v>
+        <f>Original!B7/1000</f>
+        <v>0.44277108433734874</v>
       </c>
       <c r="C8" s="1">
-        <v>0.14512113952636718</v>
+        <f>Original!C7/1000</f>
+        <v>0.1451211362663026</v>
       </c>
       <c r="D8" s="1">
         <v>18.809524536132812</v>
@@ -768,20 +797,20 @@
         <v>5.8039698600769043</v>
       </c>
       <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.44277108433734869</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1451211362663026</v>
+      </c>
+      <c r="H8" s="1">
         <f t="shared" si="1"/>
-        <v>4.4724354238221142</v>
-      </c>
-      <c r="G8" s="1">
+        <v>18.809524536132812</v>
+      </c>
+      <c r="I8" s="1">
         <f t="shared" si="2"/>
-        <v>0.14658700962259313</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" si="3"/>
-        <v>18.809524536132812</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" si="4"/>
-        <v>5.8625958182594999</v>
+        <v>5.8039698600769043</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -801,10 +830,12 @@
         <v>72</v>
       </c>
       <c r="B9" s="1">
-        <v>0.96385538578033447</v>
+        <f>Original!B8/1000</f>
+        <v>9.6385542168674801E-2</v>
       </c>
       <c r="C9" s="1">
-        <v>9.6385543823242187E-2</v>
+        <f>Original!C8/1000</f>
+        <v>9.6385542168674801E-2</v>
       </c>
       <c r="D9" s="1">
         <v>6.8981480598449707</v>
@@ -813,20 +844,20 @@
         <v>5.092592716217041</v>
       </c>
       <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>9.6385542168674801E-2</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>9.6385542168674801E-2</v>
+      </c>
+      <c r="H9" s="1">
         <f t="shared" si="1"/>
-        <v>0.97359129876801476</v>
-      </c>
-      <c r="G9" s="1">
+        <v>6.8981480598449707</v>
+      </c>
+      <c r="I9" s="1">
         <f t="shared" si="2"/>
-        <v>9.7359135174992117E-2</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" si="3"/>
-        <v>6.8981480598449707</v>
-      </c>
-      <c r="I9" s="1">
-        <f t="shared" si="4"/>
-        <v>5.1440330466838802</v>
+        <v>5.092592716217041</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -845,4 +876,159 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F562903D-FCDD-854B-B714-900AD9D24E8D}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="24.1640625" customWidth="1"/>
+    <col min="4" max="4" width="28.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0.17</v>
+      </c>
+      <c r="B2">
+        <v>90.361445783132694</v>
+      </c>
+      <c r="C2">
+        <v>90.361445783132694</v>
+      </c>
+      <c r="D2">
+        <v>39.407407407407376</v>
+      </c>
+      <c r="E2">
+        <v>5.300309279999504</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.5</v>
+      </c>
+      <c r="B3">
+        <v>313.25301204819198</v>
+      </c>
+      <c r="C3">
+        <v>313.25301204819198</v>
+      </c>
+      <c r="D3">
+        <v>40.13888888888885</v>
+      </c>
+      <c r="E3">
+        <v>3.6111111111111365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>403.61445783132467</v>
+      </c>
+      <c r="C4">
+        <v>209.8081297261202</v>
+      </c>
+      <c r="D4">
+        <v>38.240740740740698</v>
+      </c>
+      <c r="E4">
+        <v>3.0259508589570596</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>602.40963855421603</v>
+      </c>
+      <c r="C5">
+        <v>602.40963855421603</v>
+      </c>
+      <c r="D5">
+        <v>35.879629629629598</v>
+      </c>
+      <c r="E5">
+        <v>5.1439609048456996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>718.07228915662563</v>
+      </c>
+      <c r="C6">
+        <v>189.70643753711923</v>
+      </c>
+      <c r="D6">
+        <v>24.656084656084612</v>
+      </c>
+      <c r="E6">
+        <v>6.775095603676581</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>442.77108433734873</v>
+      </c>
+      <c r="C7">
+        <v>145.12113626630261</v>
+      </c>
+      <c r="D7">
+        <v>18.809523809523775</v>
+      </c>
+      <c r="E7">
+        <v>5.8039699361213222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>72</v>
+      </c>
+      <c r="B8">
+        <v>96.385542168674803</v>
+      </c>
+      <c r="C8">
+        <v>96.385542168674803</v>
+      </c>
+      <c r="D8">
+        <v>6.898148148148155</v>
+      </c>
+      <c r="E8">
+        <v>5.0925925925925917</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/Contreras_2016_2.xlsx
+++ b/data/Contreras_2016_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/migueltenorio/Documents/GitHub/CIT-SimBiology-Toolbox/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4b1145ba93b41240/Dokumente/GitHub/CIT-SimBiology-Toolbox/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AE7F11-ACE2-0A49-86B2-E53DADEAB10B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{78AE7F11-ACE2-0A49-86B2-E53DADEAB10B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{89E69CF9-6E54-436E-8847-E0DB7C19BB41}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{B5BC270A-1E9F-5746-829E-1FB2B0EBE80E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B5BC270A-1E9F-5746-829E-1FB2B0EBE80E}"/>
   </bookViews>
   <sheets>
     <sheet name="B16F10" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -443,23 +443,23 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:I9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.1640625" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="23.19921875" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="22.5" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.296875" customWidth="1"/>
+    <col min="6" max="6" width="28.09765625" customWidth="1"/>
+    <col min="7" max="7" width="14.296875" customWidth="1"/>
     <col min="8" max="8" width="26.5" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.296875" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -500,7 +500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -543,7 +543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.17000000178813934</v>
       </c>
@@ -590,7 +590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.5</v>
       </c>
@@ -637,7 +637,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -684,7 +684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -731,7 +731,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>8</v>
       </c>
@@ -778,7 +778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>24</v>
       </c>
@@ -791,7 +791,7 @@
         <v>0.1451211362663026</v>
       </c>
       <c r="D8" s="1">
-        <v>18.809524536132812</v>
+        <v>18.809524536132813</v>
       </c>
       <c r="E8" s="1">
         <v>5.8039698600769043</v>
@@ -806,7 +806,7 @@
       </c>
       <c r="H8" s="1">
         <f t="shared" si="1"/>
-        <v>18.809524536132812</v>
+        <v>18.809524536132813</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="2"/>
@@ -825,7 +825,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>72</v>
       </c>
@@ -886,13 +886,13 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.1640625" customWidth="1"/>
+    <col min="2" max="2" width="24.19921875" customWidth="1"/>
     <col min="4" max="4" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -909,7 +909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.17</v>
       </c>
@@ -926,7 +926,7 @@
         <v>5.300309279999504</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.5</v>
       </c>
@@ -943,7 +943,7 @@
         <v>3.6111111111111365</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -960,7 +960,7 @@
         <v>3.0259508589570596</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -977,7 +977,7 @@
         <v>5.1439609048456996</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>8</v>
       </c>
@@ -994,7 +994,7 @@
         <v>6.775095603676581</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>24</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>5.8039699361213222</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>72</v>
       </c>
